--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-04-unique-vs-distinct.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-04-unique-vs-distinct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{68528A17-0244-44C8-BFF2-E085FF09B61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{372A6499-6E63-40A7-BC1E-126E02D531B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BA11AC-F82E-422E-8676-699B53E61669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="912" windowWidth="14712" windowHeight="12180" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIQUE vs DISTINCT" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>UK</t>
   </si>
@@ -73,13 +95,16 @@
   </si>
   <si>
     <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>appear only once in the range</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +122,14 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -128,15 +161,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -147,6 +206,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28A988BD-2200-4B95-B200-1C93D3D11D0D}" name="Country_Population" displayName="Country_Population" ref="A2:B19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:B19" xr:uid="{28A988BD-2200-4B95-B200-1C93D3D11D0D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C887B3D1-8FDD-48C8-B3CC-5FA7038F9A1F}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{9043753A-8689-4936-AEFF-A087CA9E0667}" name="Population (mil)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,24 +477,27 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
     <col min="3" max="3" width="13.296875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="34.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" customWidth="1"/>
     <col min="9" max="10" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -448,6 +521,14 @@
       <c r="B3">
         <v>67.22</v>
       </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:D11">_xlfn.UNIQUE(Country_Population[Country],FALSE,FALSE)</f>
+        <v>UK</v>
+      </c>
+      <c r="F3" t="str" cm="1">
+        <f t="array" ref="F3:F6">_xlfn.UNIQUE(Country_Population[Country],FALSE,TRUE)</f>
+        <v>Australia</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -456,6 +537,12 @@
       <c r="B4">
         <v>329.5</v>
       </c>
+      <c r="D4" t="str">
+        <v>USA</v>
+      </c>
+      <c r="F4" t="str">
+        <v>New Zealand</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -464,6 +551,12 @@
       <c r="B5">
         <v>83.24</v>
       </c>
+      <c r="D5" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="F5" t="str">
+        <v>South Africa</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -472,6 +565,12 @@
       <c r="B6">
         <v>67.39</v>
       </c>
+      <c r="D6" t="str">
+        <v>France</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Brazil</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -480,6 +579,9 @@
       <c r="B7">
         <v>38.01</v>
       </c>
+      <c r="D7" t="str">
+        <v>Canada</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -488,6 +590,9 @@
       <c r="B8">
         <v>25.69</v>
       </c>
+      <c r="D8" t="str">
+        <v>Australia</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -496,6 +601,9 @@
       <c r="B9">
         <v>5.08</v>
       </c>
+      <c r="D9" t="str">
+        <v>New Zealand</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -504,6 +612,9 @@
       <c r="B10">
         <v>59.31</v>
       </c>
+      <c r="D10" t="str">
+        <v>South Africa</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -512,6 +623,9 @@
       <c r="B11">
         <v>212.6</v>
       </c>
+      <c r="D11" t="str">
+        <v>Brazil</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -580,5 +694,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>